--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB3BC18-B6BA-439C-899D-72C5C8482E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110C0A1-94E9-40D3-8234-960B5C40A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Usuario GitHub</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>https://dev.to/emmanx/free-figma-ui-designs-for-frontend-practice-3ak2</t>
+  </si>
+  <si>
+    <t>cedinsi.co</t>
+  </si>
+  <si>
+    <t>alvarourregoviana@gmai.com</t>
   </si>
 </sst>
 </file>
@@ -159,6 +165,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695954</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19478</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4CA806-BD2B-3E07-5F16-552921FF945E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="381000"/>
+          <a:ext cx="4505954" cy="3067478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>172644</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE13A5E-40FB-C48E-A2EB-990C2AB22043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4000500"/>
+          <a:ext cx="8554644" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1E15E-C332-4552-AA95-47EE7532DB30}">
-  <dimension ref="C2:D16"/>
+  <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,11 +644,42 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{FA241E68-F3B0-49E7-AA4F-55309925E642}"/>
     <hyperlink ref="D16" r:id="rId2" xr:uid="{A176C6CE-99DA-4711-BA36-63CE12E39685}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{42709AFE-1380-4814-9A86-69271BF573D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CB06CA-C2FE-4381-BED6-25CB264F6157}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110C0A1-94E9-40D3-8234-960B5C40A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C5A71-1C57-42D0-A6E5-75A72A2D09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
@@ -261,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,7 +560,7 @@
   <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C5A71-1C57-42D0-A6E5-75A72A2D09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70A798-955C-4F56-B453-C694234F7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Usuario GitHub</t>
   </si>
@@ -99,6 +99,36 @@
   </si>
   <si>
     <t>alvarourregoviana@gmai.com</t>
+  </si>
+  <si>
+    <t>Re direccionamiento paginas internas</t>
+  </si>
+  <si>
+    <t>En el icono principal siempre va al home</t>
+  </si>
+  <si>
+    <t>Enlaces intradocumentales ir al inicio de la pagina</t>
+  </si>
+  <si>
+    <t>tabla de Informacion Paciente</t>
+  </si>
+  <si>
+    <t>Formulario Login</t>
+  </si>
+  <si>
+    <t>Mapa de Google</t>
+  </si>
+  <si>
+    <t>aspecto Hover</t>
+  </si>
+  <si>
+    <t>Icono de Pagina  (</t>
+  </si>
+  <si>
+    <t>[19:55] Bryan Camilo Pineda Lopera
+&lt;link rel="shortcut icon" href="aqui va la imagen" type="image/x-icon"&gt;
+[19:56] Bryan Camilo Pineda Lopera
+al buscar alguna imagen preferibelmente que tenga la extesion .ico</t>
   </si>
 </sst>
 </file>
@@ -122,12 +152,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,12 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -165,99 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>695954</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19478</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4CA806-BD2B-3E07-5F16-552921FF945E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="381000"/>
-          <a:ext cx="4505954" cy="3067478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>172644</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE13A5E-40FB-C48E-A2EB-990C2AB22043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="4000500"/>
-          <a:ext cx="8554644" cy="1619476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1E15E-C332-4552-AA95-47EE7532DB30}">
   <dimension ref="C2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -671,15 +615,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CB06CA-C2FE-4381-BED6-25CB264F6157}">
-  <dimension ref="A1"/>
+  <dimension ref="D3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70A798-955C-4F56-B453-C694234F7046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDECD0-B6EB-4DB6-8EC0-F60FFB61E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>cedinsi.co</t>
   </si>
   <si>
-    <t>alvarourregoviana@gmai.com</t>
-  </si>
-  <si>
     <t>Re direccionamiento paginas internas</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
 &lt;link rel="shortcut icon" href="aqui va la imagen" type="image/x-icon"&gt;
 [19:56] Bryan Camilo Pineda Lopera
 al buscar alguna imagen preferibelmente que tenga la extesion .ico</t>
+  </si>
+  <si>
+    <t>alvarourregoviana@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1E15E-C332-4552-AA95-47EE7532DB30}">
   <dimension ref="C2:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CB06CA-C2FE-4381-BED6-25CB264F6157}">
   <dimension ref="D3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,19 +628,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
@@ -648,15 +648,15 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="4:6" ht="60" x14ac:dyDescent="0.25">
@@ -688,10 +688,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDDECD0-B6EB-4DB6-8EC0-F60FFB61E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9872023-F3A3-4E94-9853-62C9E9F68BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9872023-F3A3-4E94-9853-62C9E9F68BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C795B-C3E0-4E9A-A219-96D03147BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentos/Informacion Curso Full Stack.xlsx
+++ b/Documentos/Informacion Curso Full Stack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUV\CursoFullStack\Proyecto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C795B-C3E0-4E9A-A219-96D03147BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18556E27-5907-45D7-9596-9E45679FE7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C748DFA0-86FE-4EDF-B096-4FCC73175B2E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Usuario GitHub</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>alvarourregoviana@gmail.com</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/es/docs/Web/JavaScript/Reference/Global_Objects/Array</t>
+  </si>
+  <si>
+    <t>Pagina para Ver arreglos</t>
   </si>
 </sst>
 </file>
@@ -179,13 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -205,9 +212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +252,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +358,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,15 +508,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1E15E-C332-4552-AA95-47EE7532DB30}">
-  <dimension ref="C2:D20"/>
+  <dimension ref="C2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="129.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,12 +565,12 @@
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -588,19 +595,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
